--- a/medicine/Psychotrope/Tu_seras_mon_fils/Tu_seras_mon_fils.xlsx
+++ b/medicine/Psychotrope/Tu_seras_mon_fils/Tu_seras_mon_fils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tu seras mon fils est un film français réalisé par Gilles Legrand, sorti en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul de Marseul, propriétaire d'un vignoble bordelais renommé à Saint-Émilion, apprend que son régisseur et ami François est frappé d'une maladie incurable. 
 Martin, le fils de Paul, estime le moment venu pour enfin se lancer totalement dans l'exploitation. En effet, Martin est jusqu'à présent relégué aux fonctions commerciale et administrative de l'exploitation. 
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Gilles Legrand
 Scénario : Gilles Legrand, Delphine de Vigan
@@ -560,7 +576,7 @@
 SOFICA : Cinémage 5
 Distributeur : Universal
 Durée : 102 minutes
-Nombre d'entrées :  France : 708 531[1]
+Nombre d'entrées :  France : 708 531
 Date de sortie : France : 24 août 2011</t>
         </is>
       </c>
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Niels Arestrup : Paul de Marseul
 Lorànt Deutsch : Martin de Marseul, fils unique de Paul
@@ -631,7 +649,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C'est Gérard Depardieu qui fut, le premier, envisagé pour interpréter le personnage du redoutable père finalement interprété par Niels Arestrup.
 Le domaine dans lequel a eu lieu le tournage est le Clos Fourtet à Saint-Émilion.</t>
